--- a/Data/Bank_churn/Images/SVC_ValidationCurve_gamma.xlsx
+++ b/Data/Bank_churn/Images/SVC_ValidationCurve_gamma.xlsx
@@ -471,10 +471,10 @@
         <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>5.86</v>
+        <v>8.09</v>
       </c>
       <c r="E2" t="n">
-        <v>2.31</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>0.86</v>
       </c>
       <c r="D3" t="n">
-        <v>7.64</v>
+        <v>10.43</v>
       </c>
       <c r="E3" t="n">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>0.86</v>
       </c>
       <c r="D4" t="n">
-        <v>9.25</v>
+        <v>12.01</v>
       </c>
       <c r="E4" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>0.86</v>
       </c>
       <c r="D5" t="n">
-        <v>11.78</v>
+        <v>13.37</v>
       </c>
       <c r="E5" t="n">
-        <v>2.12</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>0.86</v>
       </c>
       <c r="D6" t="n">
-        <v>13.38</v>
+        <v>16.67</v>
       </c>
       <c r="E6" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>0.86</v>
       </c>
       <c r="D7" t="n">
-        <v>14.09</v>
+        <v>16.14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>0.86</v>
       </c>
       <c r="D8" t="n">
-        <v>10.73</v>
+        <v>14.88</v>
       </c>
       <c r="E8" t="n">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>
